--- a/Formation/VariationInMonth.xlsx
+++ b/Formation/VariationInMonth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\Formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EEBE07-9C67-4FD9-A0E9-A2687745BD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA78325-4201-4B06-BEBD-CE0D0D4EBE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{94ACB4F8-A304-439F-B128-BE7C7D0F1DBC}"/>
   </bookViews>
@@ -1364,6 +1364,313 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'CAC40'!$B$25:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.92E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F831-43D3-815C-86EDD1F581B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="482252776"/>
+        <c:axId val="482255072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="482252776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482255072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482255072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482252776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1524,6 +1831,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3034,6 +3381,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3682,6 +4532,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B185D6-DD67-49E4-AC0F-58C656B20CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4328,10 +5214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E7E228-15E5-4483-89D4-08D90215A072}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4658,6 +5544,219 @@
         <v>3.8E-3</v>
       </c>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-4.3E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-1.55E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-4.7100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2.8399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-2.92E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-1.8E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
